--- a/Lit_survey/old excel files/Xiao_2017_tables.xlsx
+++ b/Lit_survey/old excel files/Xiao_2017_tables.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cv124\Dropbox\Matz\@DH and EA-Studies Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cv124\Documents\GitHub\dh-eastasia-data\Lit_survey\old excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24900" windowHeight="13200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24900" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="163">
   <si>
     <t>序号</t>
   </si>
@@ -504,12 +504,222 @@
   <si>
     <t>出版时间</t>
   </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Record-Nr.</t>
+  </si>
+  <si>
+    <t>Newspaper Name</t>
+  </si>
+  <si>
+    <t>标签名称</t>
+  </si>
+  <si>
+    <t>标签含义</t>
+  </si>
+  <si>
+    <t>一种报纸的唯一标识号，取自MAＲC 记录097 $ a 字段前9 位</t>
+  </si>
+  <si>
+    <t>题名</t>
+  </si>
+  <si>
+    <t>报纸名称，MAＲC 记录中的200 $ a</t>
+  </si>
+  <si>
+    <t>出版日期</t>
+  </si>
+  <si>
+    <t>8 位，4 位年+ 2 位月+ 2 位日，如1936 年2 月12 日出版为19360212</t>
+  </si>
+  <si>
+    <t>卷期</t>
+  </si>
+  <si>
+    <t>每期报纸的卷号或期号，如第七十二号，则为72</t>
+  </si>
+  <si>
+    <t>版次</t>
+  </si>
+  <si>
+    <t>该版XML 文件对应的版次</t>
+  </si>
+  <si>
+    <t>标题坐标</t>
+  </si>
+  <si>
+    <t>篇目标题的位置信息，以像素点的形式记录</t>
+  </si>
+  <si>
+    <t>篇目坐标</t>
+  </si>
+  <si>
+    <t>篇目整体的位置信息，以像素点的形式记录</t>
+  </si>
+  <si>
+    <t>转版信息</t>
+  </si>
+  <si>
+    <t>篇目在本版上的内容未完，在后接版上的内容</t>
+  </si>
+  <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>篇目的作者</t>
+  </si>
+  <si>
+    <t>附图组</t>
+  </si>
+  <si>
+    <t>篇目中含有的附属图片</t>
+  </si>
+  <si>
+    <t>Beijing News Supplement</t>
+  </si>
+  <si>
+    <t>is sold with newspapers every day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drama Weekly </t>
+  </si>
+  <si>
+    <t>Every Monday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People Weekly </t>
+  </si>
+  <si>
+    <t>Every Tuesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Women's Weekly </t>
+  </si>
+  <si>
+    <t>Every Wednesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children's Weekly </t>
+  </si>
+  <si>
+    <t>Every Thursday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mangyuan Weekly </t>
+  </si>
+  <si>
+    <t>Every Friday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Literature Weekly </t>
+  </si>
+  <si>
+    <t>Every Saturday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandarin Weekly </t>
+  </si>
+  <si>
+    <t>Every Sunday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beijing University Economic Semi-Monthly </t>
+  </si>
+  <si>
+    <t>Early and Mid-month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social Sciences Bimonthly </t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Publication time</t>
+  </si>
+  <si>
+    <t>Da gang bao</t>
+  </si>
+  <si>
+    <t>Xinhua ribao</t>
+  </si>
+  <si>
+    <t>Yi shi bao</t>
+  </si>
+  <si>
+    <t>Huabei ribao</t>
+  </si>
+  <si>
+    <t>Zhongyang ribao—Fujian</t>
+  </si>
+  <si>
+    <t>Zhongyang ribao—Kunming</t>
+  </si>
+  <si>
+    <t>Zhongyang ribao—Guiyang</t>
+  </si>
+  <si>
+    <t>Zhenzhong ribao</t>
+  </si>
+  <si>
+    <t>Fujian ribao</t>
+  </si>
+  <si>
+    <t>Jizhong ribao</t>
+  </si>
+  <si>
+    <t>Jiefang ribao</t>
+  </si>
+  <si>
+    <t>Xibei wenhua ribao</t>
+  </si>
+  <si>
+    <t>Gansu minguo ribao</t>
+  </si>
+  <si>
+    <t>Nanning minguo ribao</t>
+  </si>
+  <si>
+    <t>Geming ribao</t>
+  </si>
+  <si>
+    <t>Shandong minguo ribao</t>
+  </si>
+  <si>
+    <t>Xin Tianjin</t>
+  </si>
+  <si>
+    <t>Qingdao ribao</t>
+  </si>
+  <si>
+    <t>Guofeng ribao</t>
+  </si>
+  <si>
+    <t>Gongshang ribao</t>
+  </si>
+  <si>
+    <t>Guizhou shangbao</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,6 +743,34 @@
       <color theme="1"/>
       <name val="SSJ0+ZCcJuH-2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="AdobeSongStd-Light"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -554,7 +792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -572,6 +810,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -852,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -863,464 +1126,562 @@
     <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="2">
         <v>2097</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F3" s="2">
         <v>10173</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G3" s="2">
         <v>137862</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="2">
         <v>3231</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F4" s="2">
         <v>12447</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G4" s="2">
         <v>133068</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="2">
         <v>8847</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F5" s="2">
         <v>72488</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G5" s="2">
         <v>719078</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="2">
         <v>3934</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F6" s="2">
         <v>34772</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G6" s="2">
         <v>396060</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="2">
         <v>1405</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F7" s="2">
         <v>7666</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G7" s="2">
         <v>125193</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="2">
         <v>3724</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F8" s="2">
         <v>17580</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G8" s="2">
         <v>217725</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="2">
         <v>3214</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F9" s="2">
         <v>14597</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G9" s="2">
         <v>156759</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="2">
         <v>3426</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F10" s="2">
         <v>7972</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G10" s="2">
         <v>123015</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="2">
         <v>1962</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F11" s="2">
         <v>5124</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G11" s="2">
         <v>73076</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="2">
         <v>841</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F12" s="2">
         <v>3204</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G12" s="2">
         <v>25078</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="2">
         <v>2130</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F13" s="2">
         <v>7992</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G13" s="2">
         <v>92647</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="2">
         <v>5865</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F14" s="2">
         <v>24939</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G14" s="2">
         <v>286164</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="2">
         <v>4933</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F15" s="2">
         <v>20498</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G15" s="2">
         <v>237844</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="2">
         <v>2567</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F16" s="2">
         <v>17507</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G16" s="2">
         <v>180695</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="2">
         <v>3578</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F17" s="2">
         <v>14530</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G17" s="2">
         <v>167925</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="2">
         <v>784</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F18" s="2">
         <v>6164</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G18" s="2">
         <v>50841</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="2">
         <v>4689</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F19" s="2">
         <v>53946</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G19" s="2">
         <v>422946</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="2">
         <v>1891</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F20" s="2">
         <v>21793</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G20" s="2">
         <v>138570</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="2">
         <v>2010</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F21" s="2">
         <v>6234</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G21" s="2">
         <v>65128</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>34</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="2">
         <v>2036</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F22" s="2">
         <v>5282</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G22" s="2">
         <v>67437</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>35</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="2">
         <v>969</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F23" s="2">
         <v>3878</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G23" s="2">
         <v>47451</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="B23" t="s">
+    <row r="24" spans="1:7">
+      <c r="B24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="2">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="14">
         <v>64133</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F24" s="14">
         <v>368786</v>
       </c>
-      <c r="F23" s="2">
+      <c r="G24" s="14">
         <v>3864562</v>
       </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1330,106 +1691,174 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="53.5703125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="3" width="3.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="48.5703125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="15.75">
+      <c r="A1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="31.5">
+      <c r="D1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="31.5">
       <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75">
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="31.5">
+      <c r="D3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="31.5">
       <c r="A4" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="31.5">
+      <c r="D4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="31.5">
       <c r="A5" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75">
+      <c r="D5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="31.5">
+      <c r="D6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="31.5">
       <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="31.5">
+      <c r="D7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="31.5">
       <c r="A8" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="31.5">
+      <c r="D8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.5">
       <c r="A9" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75">
+      <c r="D9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75">
+      <c r="D10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>65</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1440,42 +1869,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5">
+      <c r="E2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1484,11 +1924,18 @@
       <c r="C3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1497,11 +1944,18 @@
       <c r="C4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5">
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1510,11 +1964,18 @@
       <c r="C5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5">
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1523,11 +1984,18 @@
       <c r="C6" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="5">
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1536,11 +2004,18 @@
       <c r="C7" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5">
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1549,11 +2024,18 @@
       <c r="C8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5">
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1562,11 +2044,18 @@
       <c r="C9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5">
+      <c r="E9" s="1">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1575,11 +2064,18 @@
       <c r="C10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5">
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1588,11 +2084,18 @@
       <c r="C11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="5">
+      <c r="E11" s="1">
+        <v>9</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1601,14 +2104,21 @@
       <c r="C12" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
